--- a/LOGS/4df1e69c-c8f6-4e62-ae40-cd9fe0fb3151/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/4df1e69c-c8f6-4e62-ae40-cd9fe0fb3151/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="118">
   <si>
     <t>rows</t>
   </si>
@@ -39,6 +39,9 @@
     <t>value</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>None Trade receivables</t>
   </si>
   <si>
@@ -48,30 +51,36 @@
     <t>None 41636</t>
   </si>
   <si>
-    <t>Total Related party receivables - ultimate parent company</t>
-  </si>
-  <si>
-    <t>Total Other receivables</t>
-  </si>
-  <si>
-    <t>Total 2023 Trade and other receivables, including related parties</t>
+    <t>None Related party receivables - ultimate parent company</t>
+  </si>
+  <si>
+    <t>None Other receivables</t>
+  </si>
+  <si>
+    <t>None 2023 Trade and other receivables, including related parties</t>
   </si>
   <si>
     <t>Trade</t>
   </si>
   <si>
-    <t>Total Finished goods (at cost)</t>
-  </si>
-  <si>
-    <t>Total Parts and accessories (at cost)</t>
-  </si>
-  <si>
-    <t>Total Total</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>None Finished goods (at cost)</t>
+  </si>
+  <si>
+    <t>None Parts and accessories (at cost)</t>
+  </si>
+  <si>
+    <t>None Total</t>
   </si>
   <si>
     <t>$'000</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Cost At1 April 2021</t>
   </si>
   <si>
@@ -156,6 +165,9 @@
     <t>Total $'000</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>Reclassification from PPE At31 March 2022</t>
   </si>
   <si>
@@ -171,6 +183,9 @@
     <t>Land and Buildings $'000</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>Cost At1April 2021</t>
   </si>
   <si>
@@ -198,6 +213,9 @@
     <t>Marketing Promotion $'000</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>None Accounting profit before tax</t>
   </si>
   <si>
@@ -252,6 +270,9 @@
     <t>Reconciliation ofdeferred tax assets: Adjustments in respect deferred tax assets of prior years As of the end ofthe period</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>Current income tax Current income tax charge</t>
   </si>
   <si>
@@ -288,6 +309,9 @@
     <t>None Total trade and other payables at amortised cost</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>None At1 April 2022</t>
   </si>
   <si>
@@ -324,6 +348,9 @@
     <t>Annual Leave &amp; Long Service Leave Total $000</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>None 10,000,000 fully paid ordinary shares (2022: 10,000,000)</t>
   </si>
   <si>
@@ -333,7 +360,7 @@
     <t>None Profits capitalised on the redemption of preference shares</t>
   </si>
   <si>
-    <t>None Total</t>
+    <t>16</t>
   </si>
   <si>
     <t>None Balance at the beginning of the financial year</t>
@@ -349,6 +376,9 @@
   </si>
   <si>
     <t>None Balance at the end of the financial year</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
 </sst>
 </file>
@@ -718,13 +748,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,13 +767,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -751,13 +784,16 @@
       <c r="D2">
         <v>19230</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -765,13 +801,16 @@
       <c r="D3">
         <v>27947</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -779,13 +818,16 @@
       <c r="D4">
         <v>-12290</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -793,13 +835,16 @@
       <c r="D5">
         <v>34887</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -807,13 +852,16 @@
       <c r="D6">
         <v>12517</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -821,13 +869,16 @@
       <c r="D7">
         <v>22370</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -835,13 +886,16 @@
       <c r="D8">
         <v>15722</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -849,13 +903,16 @@
       <c r="D9">
         <v>16942</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -863,13 +920,16 @@
       <c r="D10">
         <v>-13434</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -877,13 +937,16 @@
       <c r="D11">
         <v>19230</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -891,13 +954,16 @@
       <c r="D12">
         <v>9113</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -905,13 +971,16 @@
       <c r="D13">
         <v>10117</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -919,13 +988,16 @@
       <c r="D14">
         <v>4873</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -933,13 +1005,16 @@
       <c r="D15">
         <v>1953</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -947,13 +1022,16 @@
       <c r="D16">
         <v>-1703</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -961,13 +1039,16 @@
       <c r="D17">
         <v>5123</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -975,13 +1056,16 @@
       <c r="D18">
         <v>4426</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -989,13 +1073,16 @@
       <c r="D19">
         <v>697</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -1003,13 +1090,16 @@
       <c r="D20">
         <v>4265</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -1017,13 +1107,16 @@
       <c r="D21">
         <v>1802</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C22">
         <v>2023</v>
@@ -1031,13 +1124,16 @@
       <c r="D22">
         <v>-1194</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -1045,13 +1141,16 @@
       <c r="D23">
         <v>4873</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -1059,13 +1158,16 @@
       <c r="D24">
         <v>4294</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -1073,13 +1175,16 @@
       <c r="D25">
         <v>579</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -1087,13 +1192,16 @@
       <c r="D26">
         <v>102343</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C27">
         <v>2023</v>
@@ -1101,13 +1209,16 @@
       <c r="D27">
         <v>295326</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C28">
         <v>2023</v>
@@ -1115,13 +1226,16 @@
       <c r="D28">
         <v>-256835</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C29">
         <v>2023</v>
@@ -1129,13 +1243,16 @@
       <c r="D29">
         <v>140834</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C30">
         <v>2023</v>
@@ -1143,13 +1260,16 @@
       <c r="D30">
         <v>140834</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C31">
         <v>2023</v>
@@ -1157,13 +1277,16 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C32">
         <v>2023</v>
@@ -1171,13 +1294,16 @@
       <c r="D32">
         <v>50655</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C33">
         <v>2023</v>
@@ -1185,13 +1311,16 @@
       <c r="D33">
         <v>248148</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C34">
         <v>2023</v>
@@ -1199,13 +1328,16 @@
       <c r="D34">
         <v>-196460</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C35">
         <v>2022</v>
@@ -1213,13 +1345,16 @@
       <c r="D35">
         <v>102343</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C36">
         <v>2023</v>
@@ -1227,13 +1362,16 @@
       <c r="D36">
         <v>102343</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C37">
         <v>2023</v>
@@ -1241,13 +1379,16 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C38">
         <v>2022</v>
@@ -1255,13 +1396,16 @@
       <c r="D38">
         <v>126446</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C39">
         <v>2023</v>
@@ -1269,13 +1413,16 @@
       <c r="D39">
         <v>325226</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C40">
         <v>2023</v>
@@ -1283,13 +1430,16 @@
       <c r="D40">
         <v>-270828</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C41">
         <v>2023</v>
@@ -1297,13 +1447,16 @@
       <c r="D41">
         <v>180844</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C42">
         <v>2023</v>
@@ -1311,13 +1464,16 @@
       <c r="D42">
         <v>157777</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C43">
         <v>2023</v>
@@ -1325,13 +1481,16 @@
       <c r="D43">
         <v>23067</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C44">
         <v>2023</v>
@@ -1339,13 +1498,16 @@
       <c r="D44">
         <v>70642</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C45">
         <v>2023</v>
@@ -1353,13 +1515,16 @@
       <c r="D45">
         <v>266892</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C46">
         <v>2023</v>
@@ -1367,13 +1532,16 @@
       <c r="D46">
         <v>-211088</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C47">
         <v>2022</v>
@@ -1381,13 +1549,16 @@
       <c r="D47">
         <v>126446</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C48">
         <v>2023</v>
@@ -1395,19 +1566,25 @@
       <c r="D48">
         <v>115750</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C49">
         <v>2023</v>
       </c>
       <c r="D49">
         <v>10696</v>
+      </c>
+      <c r="E49" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1417,13 +1594,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1436,10 +1613,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1447,10 +1627,13 @@
       <c r="D2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1458,10 +1641,13 @@
       <c r="D3">
         <v>37000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1469,10 +1655,13 @@
       <c r="D4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1480,10 +1669,13 @@
       <c r="D5">
         <v>57000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1491,10 +1683,13 @@
       <c r="D6">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -1502,10 +1697,13 @@
       <c r="D7">
         <v>37000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -1513,16 +1711,22 @@
       <c r="D8">
         <v>10000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
       <c r="D9">
         <v>57000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1532,13 +1736,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1551,10 +1755,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1562,10 +1769,13 @@
       <c r="D2">
         <v>135725</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1573,10 +1783,13 @@
       <c r="D3">
         <v>28290</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1584,10 +1797,13 @@
       <c r="D4">
         <v>265</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1595,10 +1811,13 @@
       <c r="D5">
         <v>-36657</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1606,10 +1825,13 @@
       <c r="D6">
         <v>127623</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -1617,10 +1839,13 @@
       <c r="D7">
         <v>99070</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -1628,10 +1853,13 @@
       <c r="D8">
         <v>36657</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -1639,10 +1867,13 @@
       <c r="D9">
         <v>-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1650,16 +1881,22 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C11">
         <v>2022</v>
       </c>
       <c r="D11">
         <v>135725</v>
+      </c>
+      <c r="E11" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1669,13 +1906,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1688,13 +1925,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1702,13 +1942,16 @@
       <c r="D2">
         <v>41763</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1716,13 +1959,16 @@
       <c r="D3">
         <v>-127</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1730,13 +1976,16 @@
       <c r="D4">
         <v>21783</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1744,13 +1993,16 @@
       <c r="D5">
         <v>387</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1758,19 +2010,25 @@
       <c r="D6">
         <v>625</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>2023</v>
       </c>
       <c r="D7">
         <v>42648</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1780,13 +2038,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1799,13 +2057,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1813,13 +2074,16 @@
       <c r="D2">
         <v>160160</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1827,13 +2091,16 @@
       <c r="D3">
         <v>77242</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1841,13 +2108,16 @@
       <c r="D4">
         <v>237402</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -1855,13 +2125,16 @@
       <c r="D5">
         <v>198827</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1869,19 +2142,25 @@
       <c r="D6">
         <v>56201</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>255028</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1891,13 +2170,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1910,13 +2189,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1924,13 +2206,16 @@
       <c r="D2">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1938,13 +2223,16 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1952,13 +2240,16 @@
       <c r="D4">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1966,13 +2257,16 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1980,13 +2274,16 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1994,13 +2291,16 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -2008,13 +2308,16 @@
       <c r="D8">
         <v>197</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -2022,13 +2325,16 @@
       <c r="D9">
         <v>-12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -2036,13 +2342,16 @@
       <c r="D10">
         <v>-7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -2050,13 +2359,16 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -2064,13 +2376,16 @@
       <c r="D12">
         <v>-19</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -2078,13 +2393,16 @@
       <c r="D13">
         <v>178</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -2092,13 +2410,16 @@
       <c r="D14">
         <v>94</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -2106,13 +2427,16 @@
       <c r="D15">
         <v>197</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -2120,13 +2444,16 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -2134,13 +2461,16 @@
       <c r="D17">
         <v>119</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -2148,13 +2478,16 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -2162,13 +2495,16 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -2176,13 +2512,16 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -2190,13 +2529,16 @@
       <c r="D21">
         <v>316</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -2204,13 +2546,16 @@
       <c r="D22">
         <v>-19</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -2218,13 +2563,16 @@
       <c r="D23">
         <v>-9</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -2232,13 +2580,16 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -2246,13 +2597,16 @@
       <c r="D25">
         <v>-28</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>2023</v>
@@ -2260,13 +2614,16 @@
       <c r="D26">
         <v>288</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -2274,13 +2631,16 @@
       <c r="D27">
         <v>178</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>2023</v>
@@ -2288,13 +2648,16 @@
       <c r="D28">
         <v>7515</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>2023</v>
@@ -2302,13 +2665,16 @@
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>2023</v>
@@ -2316,13 +2682,16 @@
       <c r="D30">
         <v>716</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C31">
         <v>2023</v>
@@ -2330,13 +2699,16 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C32">
         <v>2023</v>
@@ -2344,13 +2716,16 @@
       <c r="D32">
         <v>-52</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C33">
         <v>2023</v>
@@ -2358,13 +2733,16 @@
       <c r="D33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C34">
         <v>2022</v>
@@ -2372,13 +2750,16 @@
       <c r="D34">
         <v>8179</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C35">
         <v>2023</v>
@@ -2386,13 +2767,16 @@
       <c r="D35">
         <v>-3610</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C36">
         <v>2023</v>
@@ -2400,13 +2784,16 @@
       <c r="D36">
         <v>-717</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C37">
         <v>2023</v>
@@ -2414,13 +2801,16 @@
       <c r="D37">
         <v>52</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C38">
         <v>2022</v>
@@ -2428,13 +2818,16 @@
       <c r="D38">
         <v>-4275</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C39">
         <v>2022</v>
@@ -2442,13 +2835,16 @@
       <c r="D39">
         <v>3904</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C40">
         <v>2023</v>
@@ -2456,13 +2852,16 @@
       <c r="D40">
         <v>3905</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C41">
         <v>2022</v>
@@ -2470,13 +2869,16 @@
       <c r="D41">
         <v>8179</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C42">
         <v>2023</v>
@@ -2484,13 +2886,16 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C43">
         <v>2023</v>
@@ -2498,13 +2903,16 @@
       <c r="D43">
         <v>1427</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C44">
         <v>2023</v>
@@ -2512,13 +2920,16 @@
       <c r="D44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C45">
         <v>2023</v>
@@ -2526,13 +2937,16 @@
       <c r="D45">
         <v>-61</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C46">
         <v>2023</v>
@@ -2540,13 +2954,16 @@
       <c r="D46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C47">
         <v>2023</v>
@@ -2554,13 +2971,16 @@
       <c r="D47">
         <v>9545</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C48">
         <v>2022</v>
@@ -2568,13 +2988,16 @@
       <c r="D48">
         <v>-4275</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C49">
         <v>2023</v>
@@ -2582,13 +3005,16 @@
       <c r="D49">
         <v>-733</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C50">
         <v>2023</v>
@@ -2596,13 +3022,16 @@
       <c r="D50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C51">
         <v>2023</v>
@@ -2610,13 +3039,16 @@
       <c r="D51">
         <v>-4959</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C52">
         <v>2023</v>
@@ -2624,13 +3056,16 @@
       <c r="D52">
         <v>4586</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C53">
         <v>2022</v>
@@ -2638,13 +3073,16 @@
       <c r="D53">
         <v>3904</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C54">
         <v>2023</v>
@@ -2652,13 +3090,16 @@
       <c r="D54">
         <v>960</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C55">
         <v>2023</v>
@@ -2666,13 +3107,16 @@
       <c r="D55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C56">
         <v>2023</v>
@@ -2680,13 +3124,16 @@
       <c r="D56">
         <v>42</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C57">
         <v>2023</v>
@@ -2694,13 +3141,16 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C58">
         <v>2023</v>
@@ -2708,13 +3158,16 @@
       <c r="D58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C59">
         <v>2023</v>
@@ -2722,13 +3175,16 @@
       <c r="D59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C60">
         <v>2022</v>
@@ -2736,13 +3192,16 @@
       <c r="D60">
         <v>1002</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C61">
         <v>2023</v>
@@ -2750,13 +3209,16 @@
       <c r="D61">
         <v>-722</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C62">
         <v>2023</v>
@@ -2764,13 +3226,16 @@
       <c r="D62">
         <v>-100</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C63">
         <v>2023</v>
@@ -2778,13 +3243,16 @@
       <c r="D63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C64">
         <v>2022</v>
@@ -2792,13 +3260,16 @@
       <c r="D64">
         <v>-822</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C65">
         <v>2022</v>
@@ -2806,13 +3277,16 @@
       <c r="D65">
         <v>180</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C66">
         <v>2023</v>
@@ -2820,13 +3294,16 @@
       <c r="D66">
         <v>238</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C67">
         <v>2022</v>
@@ -2834,13 +3311,16 @@
       <c r="D67">
         <v>1002</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C68">
         <v>2023</v>
@@ -2848,13 +3328,16 @@
       <c r="D68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C69">
         <v>2023</v>
@@ -2862,13 +3345,16 @@
       <c r="D69">
         <v>165</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C70">
         <v>2023</v>
@@ -2876,13 +3362,16 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C71">
         <v>2023</v>
@@ -2890,13 +3379,16 @@
       <c r="D71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C72">
         <v>2023</v>
@@ -2904,13 +3396,16 @@
       <c r="D72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C73">
         <v>2023</v>
@@ -2918,13 +3413,16 @@
       <c r="D73">
         <v>1167</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C74">
         <v>2022</v>
@@ -2932,13 +3430,16 @@
       <c r="D74">
         <v>-822</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C75">
         <v>2023</v>
@@ -2946,13 +3447,16 @@
       <c r="D75">
         <v>-120</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C76">
         <v>2023</v>
@@ -2960,13 +3464,16 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B77" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C77">
         <v>2023</v>
@@ -2974,13 +3481,16 @@
       <c r="D77">
         <v>-942</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B78" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C78">
         <v>2023</v>
@@ -2988,13 +3498,16 @@
       <c r="D78">
         <v>225</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C79">
         <v>2022</v>
@@ -3002,13 +3515,16 @@
       <c r="D79">
         <v>180</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B80" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C80">
         <v>2023</v>
@@ -3016,13 +3532,16 @@
       <c r="D80">
         <v>523</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B81" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C81">
         <v>2023</v>
@@ -3030,13 +3549,16 @@
       <c r="D81">
         <v>2645</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C82">
         <v>2023</v>
@@ -3044,13 +3566,16 @@
       <c r="D82">
         <v>-849</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C83">
         <v>2023</v>
@@ -3058,13 +3583,16 @@
       <c r="D83">
         <v>-1624</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C84">
         <v>2023</v>
@@ -3072,13 +3600,16 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C85">
         <v>2023</v>
@@ -3086,13 +3617,16 @@
       <c r="D85">
         <v>-22</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B86" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C86">
         <v>2022</v>
@@ -3100,13 +3634,16 @@
       <c r="D86">
         <v>673</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C87">
         <v>2023</v>
@@ -3114,13 +3651,16 @@
       <c r="D87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B88" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C88">
         <v>2023</v>
@@ -3128,13 +3668,16 @@
       <c r="D88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B89" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C89">
         <v>2023</v>
@@ -3142,13 +3685,16 @@
       <c r="D89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B90" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C90">
         <v>2022</v>
@@ -3156,13 +3702,16 @@
       <c r="D90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B91" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C91">
         <v>2022</v>
@@ -3170,13 +3719,16 @@
       <c r="D91">
         <v>673</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B92" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C92">
         <v>2023</v>
@@ -3184,13 +3736,16 @@
       <c r="D92">
         <v>523</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B93" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C93">
         <v>2022</v>
@@ -3198,13 +3753,16 @@
       <c r="D93">
         <v>673</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B94" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C94">
         <v>2023</v>
@@ -3212,13 +3770,16 @@
       <c r="D94">
         <v>2011</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C95">
         <v>2023</v>
@@ -3226,13 +3787,16 @@
       <c r="D95">
         <v>-1711</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C96">
         <v>2023</v>
@@ -3240,13 +3804,16 @@
       <c r="D96">
         <v>-403</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B97" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C97">
         <v>2023</v>
@@ -3254,13 +3821,16 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B98" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C98">
         <v>2023</v>
@@ -3268,13 +3838,16 @@
       <c r="D98">
         <v>-5</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B99" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C99">
         <v>2023</v>
@@ -3282,13 +3855,16 @@
       <c r="D99">
         <v>565</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B100" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C100">
         <v>2022</v>
@@ -3296,13 +3872,16 @@
       <c r="D100">
         <v>-5116</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B101" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C101">
         <v>2023</v>
@@ -3310,13 +3889,16 @@
       <c r="D101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C102">
         <v>2023</v>
@@ -3324,13 +3906,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B103" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C103">
         <v>2023</v>
@@ -3338,13 +3923,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B104" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C104">
         <v>2023</v>
@@ -3352,13 +3940,16 @@
       <c r="D104">
         <v>565</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B105" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C105">
         <v>2022</v>
@@ -3366,13 +3957,16 @@
       <c r="D105">
         <v>673</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B106" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C106">
         <v>2023</v>
@@ -3380,13 +3974,16 @@
       <c r="D106">
         <v>9104</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B107" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C107">
         <v>2023</v>
@@ -3394,13 +3991,16 @@
       <c r="D107">
         <v>2645</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C108">
         <v>2023</v>
@@ -3408,13 +4008,16 @@
       <c r="D108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C109">
         <v>2023</v>
@@ -3422,13 +4025,16 @@
       <c r="D109">
         <v>-1624</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B110" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C110">
         <v>2023</v>
@@ -3436,13 +4042,16 @@
       <c r="D110">
         <v>-52</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B111" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C111">
         <v>2023</v>
@@ -3450,13 +4059,16 @@
       <c r="D111">
         <v>-22</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="E111" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B112" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C112">
         <v>2022</v>
@@ -3464,13 +4076,16 @@
       <c r="D112">
         <v>10051</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B113" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C113">
         <v>2023</v>
@@ -3478,13 +4093,16 @@
       <c r="D113">
         <v>-4344</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B114" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C114">
         <v>2023</v>
@@ -3492,13 +4110,16 @@
       <c r="D114">
         <v>-824</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B115" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C115">
         <v>2023</v>
@@ -3506,13 +4127,16 @@
       <c r="D115">
         <v>52</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B116" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C116">
         <v>2022</v>
@@ -3520,13 +4144,16 @@
       <c r="D116">
         <v>-5116</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B117" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C117">
         <v>2022</v>
@@ -3534,13 +4161,16 @@
       <c r="D117">
         <v>4935</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B118" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C118">
         <v>2023</v>
@@ -3548,13 +4178,16 @@
       <c r="D118">
         <v>4760</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B119" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C119">
         <v>2022</v>
@@ -3562,13 +4195,16 @@
       <c r="D119">
         <v>10051</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B120" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C120">
         <v>2023</v>
@@ -3576,13 +4212,16 @@
       <c r="D120">
         <v>2011</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B121" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C121">
         <v>2023</v>
@@ -3590,13 +4229,16 @@
       <c r="D121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B122" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C122">
         <v>2023</v>
@@ -3604,13 +4246,16 @@
       <c r="D122">
         <v>-403</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C123">
         <v>2023</v>
@@ -3618,13 +4263,16 @@
       <c r="D123">
         <v>-61</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B124" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C124">
         <v>2023</v>
@@ -3632,13 +4280,16 @@
       <c r="D124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B125" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C125">
         <v>2023</v>
@@ -3646,13 +4297,16 @@
       <c r="D125">
         <v>11593</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B126" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C126">
         <v>2022</v>
@@ -3660,13 +4314,16 @@
       <c r="D126">
         <v>-5116</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B127" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C127">
         <v>2023</v>
@@ -3674,13 +4331,16 @@
       <c r="D127">
         <v>-862</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B128" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C128">
         <v>2023</v>
@@ -3688,13 +4348,16 @@
       <c r="D128">
         <v>49</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B129" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C129">
         <v>2023</v>
@@ -3702,13 +4365,16 @@
       <c r="D129">
         <v>-5929</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="E129" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B130" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C130">
         <v>2023</v>
@@ -3716,19 +4382,25 @@
       <c r="D130">
         <v>5664</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="E130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B131" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C131">
         <v>2022</v>
       </c>
       <c r="D131">
         <v>4935</v>
+      </c>
+      <c r="E131" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3738,13 +4410,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3757,13 +4429,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3771,13 +4446,16 @@
       <c r="D2">
         <v>16102</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -3785,13 +4463,16 @@
       <c r="D3">
         <v>16102</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3799,13 +4480,16 @@
       <c r="D4">
         <v>-4089</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3813,13 +4497,16 @@
       <c r="D5">
         <v>-238</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -3827,13 +4514,16 @@
       <c r="D6">
         <v>-4327</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -3841,13 +4531,16 @@
       <c r="D7">
         <v>11775</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -3855,13 +4548,16 @@
       <c r="D8">
         <v>12013</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -3869,13 +4565,16 @@
       <c r="D9">
         <v>16102</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -3883,13 +4582,16 @@
       <c r="D10">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -3897,13 +4599,16 @@
       <c r="D11">
         <v>16121</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -3911,13 +4616,16 @@
       <c r="D12">
         <v>-4327</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -3925,13 +4633,16 @@
       <c r="D13">
         <v>-238</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -3939,13 +4650,16 @@
       <c r="D14">
         <v>-4565</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -3953,19 +4667,25 @@
       <c r="D15">
         <v>11556</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>2022</v>
       </c>
       <c r="D16">
         <v>11775</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3975,13 +4695,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3994,13 +4714,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -4008,13 +4731,16 @@
       <c r="D2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -4022,13 +4748,16 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -4036,13 +4765,16 @@
       <c r="D4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -4050,13 +4782,16 @@
       <c r="D5">
         <v>-13924</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -4064,13 +4799,16 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -4078,13 +4816,16 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -4092,13 +4833,16 @@
       <c r="D8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -4106,13 +4850,16 @@
       <c r="D9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -4120,13 +4867,16 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -4134,13 +4884,16 @@
       <c r="D11">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -4148,13 +4901,16 @@
       <c r="D12">
         <v>-14565</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -4162,13 +4918,16 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -4176,13 +4935,16 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -4190,13 +4952,16 @@
       <c r="D15">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -4204,13 +4969,16 @@
       <c r="D16">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -4218,13 +4986,16 @@
       <c r="D17">
         <v>15714</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -4232,13 +5003,16 @@
       <c r="D18">
         <v>484</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -4246,13 +5020,16 @@
       <c r="D19">
         <v>16198</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -4260,13 +5037,16 @@
       <c r="D20">
         <v>-13924</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -4274,13 +5054,16 @@
       <c r="D21">
         <v>-641</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -4288,13 +5071,16 @@
       <c r="D22">
         <v>-14565</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -4302,13 +5088,16 @@
       <c r="D23">
         <v>1633</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -4316,13 +5105,16 @@
       <c r="D24">
         <v>1790</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -4330,13 +5122,16 @@
       <c r="D25">
         <v>384</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C26">
         <v>2023</v>
@@ -4344,13 +5139,16 @@
       <c r="D26">
         <v>16582</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -4358,13 +5156,16 @@
       <c r="D27">
         <v>-14565</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C28">
         <v>2023</v>
@@ -4372,13 +5173,16 @@
       <c r="D28">
         <v>-684</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C29">
         <v>2023</v>
@@ -4386,13 +5190,16 @@
       <c r="D29">
         <v>-15249</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>2023</v>
@@ -4400,13 +5207,16 @@
       <c r="D30">
         <v>1333</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C31">
         <v>2022</v>
@@ -4414,13 +5224,16 @@
       <c r="D31">
         <v>1633</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C32">
         <v>2023</v>
@@ -4428,13 +5241,16 @@
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C33">
         <v>2023</v>
@@ -4442,13 +5258,16 @@
       <c r="D33">
         <v>1140</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C34">
         <v>2022</v>
@@ -4456,13 +5275,16 @@
       <c r="D34">
         <v>1140</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C35">
         <v>2023</v>
@@ -4470,13 +5292,16 @@
       <c r="D35">
         <v>-13924</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C36">
         <v>2023</v>
@@ -4484,13 +5309,16 @@
       <c r="D36">
         <v>-276</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C37">
         <v>2022</v>
@@ -4498,13 +5326,16 @@
       <c r="D37">
         <v>-276</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C38">
         <v>2022</v>
@@ -4512,13 +5343,16 @@
       <c r="D38">
         <v>864</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C39">
         <v>2023</v>
@@ -4526,13 +5360,16 @@
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C40">
         <v>2023</v>
@@ -4540,13 +5377,16 @@
       <c r="D40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C41">
         <v>2023</v>
@@ -4554,13 +5394,16 @@
       <c r="D41">
         <v>1140</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C42">
         <v>2022</v>
@@ -4568,13 +5411,16 @@
       <c r="D42">
         <v>-276</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C43">
         <v>2023</v>
@@ -4582,13 +5428,16 @@
       <c r="D43">
         <v>-381</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C44">
         <v>2023</v>
@@ -4596,13 +5445,16 @@
       <c r="D44">
         <v>-657</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C45">
         <v>2023</v>
@@ -4610,13 +5462,16 @@
       <c r="D45">
         <v>483</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C46">
         <v>2022</v>
@@ -4624,13 +5479,16 @@
       <c r="D46">
         <v>864</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C47">
         <v>2023</v>
@@ -4638,13 +5496,16 @@
       <c r="D47">
         <v>15764</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C48">
         <v>2023</v>
@@ -4652,13 +5513,16 @@
       <c r="D48">
         <v>1624</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C49">
         <v>2022</v>
@@ -4666,13 +5530,16 @@
       <c r="D49">
         <v>17388</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C50">
         <v>2023</v>
@@ -4680,13 +5547,16 @@
       <c r="D50">
         <v>-13924</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C51">
         <v>2023</v>
@@ -4694,13 +5564,16 @@
       <c r="D51">
         <v>-917</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C52">
         <v>2022</v>
@@ -4708,13 +5581,16 @@
       <c r="D52">
         <v>-14841</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C53">
         <v>2022</v>
@@ -4722,13 +5598,16 @@
       <c r="D53">
         <v>2547</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C54">
         <v>2023</v>
@@ -4736,13 +5615,16 @@
       <c r="D54">
         <v>1840</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C55">
         <v>2023</v>
@@ -4750,13 +5632,16 @@
       <c r="D55">
         <v>384</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C56">
         <v>2023</v>
@@ -4764,13 +5649,16 @@
       <c r="D56">
         <v>17772</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C57">
         <v>2022</v>
@@ -4778,13 +5666,16 @@
       <c r="D57">
         <v>-14841</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C58">
         <v>2023</v>
@@ -4792,13 +5683,16 @@
       <c r="D58">
         <v>-1065</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C59">
         <v>2023</v>
@@ -4806,13 +5700,16 @@
       <c r="D59">
         <v>-15906</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C60">
         <v>2023</v>
@@ -4820,19 +5717,25 @@
       <c r="D60">
         <v>1866</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C61">
         <v>2022</v>
       </c>
       <c r="D61">
         <v>2547</v>
+      </c>
+      <c r="E61" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4842,13 +5745,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4861,10 +5764,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -4872,10 +5778,13 @@
       <c r="D2">
         <v>40703</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -4883,10 +5792,13 @@
       <c r="D3">
         <v>12211</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -4894,10 +5806,13 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -4905,10 +5820,13 @@
       <c r="D5">
         <v>199</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -4916,10 +5834,13 @@
       <c r="D6">
         <v>12413</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -4927,10 +5848,13 @@
       <c r="D7">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -4938,10 +5862,13 @@
       <c r="D8">
         <v>58608</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -4949,10 +5876,13 @@
       <c r="D9">
         <v>1195</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -4960,10 +5890,13 @@
       <c r="D10">
         <v>-2869</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -4971,10 +5904,13 @@
       <c r="D11">
         <v>3539</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -4982,10 +5918,13 @@
       <c r="D12">
         <v>595</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -4993,10 +5932,13 @@
       <c r="D13">
         <v>-120</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -5004,10 +5946,13 @@
       <c r="D14">
         <v>-13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -5015,10 +5960,13 @@
       <c r="D15">
         <v>60999</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -5026,10 +5974,13 @@
       <c r="D16">
         <v>44553</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -5037,10 +5988,13 @@
       <c r="D17">
         <v>16585</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -5048,10 +6002,13 @@
       <c r="D18">
         <v>-114</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -5059,10 +6016,13 @@
       <c r="D19">
         <v>-25</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -5070,10 +6030,13 @@
       <c r="D20">
         <v>60999</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -5081,10 +6044,13 @@
       <c r="D21">
         <v>52433</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -5092,10 +6058,13 @@
       <c r="D22">
         <v>15730</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -5103,10 +6072,13 @@
       <c r="D23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -5114,10 +6086,13 @@
       <c r="D24">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C25">
         <v>2022</v>
@@ -5125,10 +6100,13 @@
       <c r="D25">
         <v>15776</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -5136,10 +6114,13 @@
       <c r="D26">
         <v>-209</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -5147,10 +6128,13 @@
       <c r="D27">
         <v>42057</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C28">
         <v>2022</v>
@@ -5158,10 +6142,13 @@
       <c r="D28">
         <v>867</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C29">
         <v>2022</v>
@@ -5169,10 +6156,13 @@
       <c r="D29">
         <v>-3465</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -5180,10 +6170,13 @@
       <c r="D30">
         <v>4666</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C31">
         <v>2022</v>
@@ -5191,10 +6184,13 @@
       <c r="D31">
         <v>652</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -5202,10 +6198,13 @@
       <c r="D32">
         <v>-4</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C33">
         <v>2022</v>
@@ -5213,10 +6212,13 @@
       <c r="D33">
         <v>-11</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C34">
         <v>2022</v>
@@ -5224,10 +6226,13 @@
       <c r="D34">
         <v>44553</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C35">
         <v>2022</v>
@@ -5235,10 +6240,13 @@
       <c r="D35">
         <v>26730</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C36">
         <v>2022</v>
@@ -5246,10 +6254,13 @@
       <c r="D36">
         <v>17117</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C37">
         <v>2022</v>
@@ -5257,10 +6268,13 @@
       <c r="D37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C38">
         <v>2022</v>
@@ -5268,16 +6282,22 @@
       <c r="D38">
         <v>705</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C39">
         <v>2022</v>
       </c>
       <c r="D39">
         <v>44553</v>
+      </c>
+      <c r="E39" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5287,13 +6307,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5306,10 +6326,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -5317,10 +6340,13 @@
       <c r="D2">
         <v>28995</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -5328,10 +6354,13 @@
       <c r="D3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -5339,10 +6368,13 @@
       <c r="D4">
         <v>-16585</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -5350,10 +6382,13 @@
       <c r="D5">
         <v>12413</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -5361,10 +6396,13 @@
       <c r="D6">
         <v>114</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -5372,10 +6410,13 @@
       <c r="D7">
         <v>114</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -5383,10 +6424,13 @@
       <c r="D8">
         <v>32883</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -5394,10 +6438,13 @@
       <c r="D9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -5405,10 +6452,13 @@
       <c r="D10">
         <v>-17117</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -5416,10 +6466,13 @@
       <c r="D11">
         <v>15776</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -5427,16 +6480,22 @@
       <c r="D12">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <v>2022</v>
       </c>
       <c r="D13">
         <v>-1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5446,13 +6505,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5465,10 +6524,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -5476,10 +6538,13 @@
       <c r="D2">
         <v>50854</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -5487,10 +6552,13 @@
       <c r="D3">
         <v>2270</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -5498,10 +6566,13 @@
       <c r="D4">
         <v>109601</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -5509,10 +6580,13 @@
       <c r="D5">
         <v>10374</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -5520,10 +6594,13 @@
       <c r="D6">
         <v>2602</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -5531,10 +6608,13 @@
       <c r="D7">
         <v>175701</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -5542,10 +6622,13 @@
       <c r="D8">
         <v>40768</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -5553,10 +6636,13 @@
       <c r="D9">
         <v>1126</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -5564,10 +6650,13 @@
       <c r="D10">
         <v>169387</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -5575,10 +6664,13 @@
       <c r="D11">
         <v>6085</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -5586,16 +6678,22 @@
       <c r="D12">
         <v>2319</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>2022</v>
       </c>
       <c r="D13">
         <v>219685</v>
+      </c>
+      <c r="E13" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
